--- a/Base/Teams/Raiders/Distributions.xlsx
+++ b/Base/Teams/Raiders/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>NCT(2.34596264767172, 1.2284663897297357, -0.004864255675065123, 2.0903663393696448)</t>
-  </si>
-  <si>
-    <t>JSU(-1.5749394199773725, 1.1587740759186125, 1.727098329570043, 4.136665447774853)</t>
-  </si>
-  <si>
-    <t>JSU(-1.1032213247186518, 1.1928529480098322, 0.18085314508967848, 2.8799503023945867)</t>
-  </si>
-  <si>
-    <t>NCT(2.5807134110631176, 1.9574478583927044, -0.010094353029573636, 3.4849272278145076)</t>
+    <t>NCT(2.4629931245189596, 1.4526562725610939, -0.5178671126415235, 2.091077234754842)</t>
+  </si>
+  <si>
+    <t>JSU(-1.4820237081653596, 1.1576632762637846, 1.8493384811165767, 4.335431017488042)</t>
+  </si>
+  <si>
+    <t>NCT(2.682447771505421, 1.517054341635561, -0.9908190857409174, 2.514838856782918)</t>
+  </si>
+  <si>
+    <t>NIG(1.027096551742294, 0.8079362965052368, 4.1326868856816015, 4.435257325652644)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Raiders/Distributions.xlsx
+++ b/Base/Teams/Raiders/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>NCT(2.4629931245189596, 1.4526562725610939, -0.5178671126415235, 2.091077234754842)</t>
-  </si>
-  <si>
-    <t>JSU(-1.4820237081653596, 1.1576632762637846, 1.8493384811165767, 4.335431017488042)</t>
-  </si>
-  <si>
-    <t>NCT(2.682447771505421, 1.517054341635561, -0.9908190857409174, 2.514838856782918)</t>
-  </si>
-  <si>
-    <t>NIG(1.027096551742294, 0.8079362965052368, 4.1326868856816015, 4.435257325652644)</t>
+    <t>NCT(2.4846292089395843, 1.3781639410256596, -0.3673941227252412, 2.110954202427628)</t>
+  </si>
+  <si>
+    <t>JSU(-1.4653550008576495, 1.1465709972337499, 1.9928724526249957, 4.162373694393471)</t>
+  </si>
+  <si>
+    <t>NCT(2.7019086712247686, 1.511770239734573, -0.9275843991507812, 2.4580439015409343)</t>
+  </si>
+  <si>
+    <t>NIG(1.0445799987677407, 0.8281669264393693, 4.021273944960039, 4.5858575524410545)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Raiders/Distributions.xlsx
+++ b/Base/Teams/Raiders/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>NCT(2.4846292089395843, 1.3781639410256596, -0.3673941227252412, 2.110954202427628)</t>
-  </si>
-  <si>
-    <t>JSU(-1.4653550008576495, 1.1465709972337499, 1.9928724526249957, 4.162373694393471)</t>
-  </si>
-  <si>
-    <t>NCT(2.7019086712247686, 1.511770239734573, -0.9275843991507812, 2.4580439015409343)</t>
-  </si>
-  <si>
-    <t>NIG(1.0445799987677407, 0.8281669264393693, 4.021273944960039, 4.5858575524410545)</t>
+    <t>NCT(2.706298172812425, 1.2090313287454308, -0.0072667617676891155, 2.316990275100726)</t>
+  </si>
+  <si>
+    <t>JSU(-1.3739278578640508, 1.18568690325675, 2.310451450803438, 4.622850275754908)</t>
+  </si>
+  <si>
+    <t>NCT(2.4086928129537304, 1.1306078712125993, -0.016179999753329843, 2.4530510187780594)</t>
+  </si>
+  <si>
+    <t>NIG(1.035249752960902, 0.8339133762786255, 3.9348229756215485, 4.340252631256927)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Raiders/Distributions.xlsx
+++ b/Base/Teams/Raiders/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>NCT(2.706298172812425, 1.2090313287454308, -0.0072667617676891155, 2.316990275100726)</t>
-  </si>
-  <si>
-    <t>JSU(-1.3739278578640508, 1.18568690325675, 2.310451450803438, 4.622850275754908)</t>
-  </si>
-  <si>
-    <t>NCT(2.4086928129537304, 1.1306078712125993, -0.016179999753329843, 2.4530510187780594)</t>
-  </si>
-  <si>
-    <t>NIG(1.035249752960902, 0.8339133762786255, 3.9348229756215485, 4.340252631256927)</t>
+    <t>NCT(2.785147743511865, 1.2057023122632777, -0.007301044594589297, 2.3184507413268456)</t>
+  </si>
+  <si>
+    <t>JSU(-1.3658504100454936, 1.17601274990059, 2.319125548339838, 4.550893059250333)</t>
+  </si>
+  <si>
+    <t>NCT(2.519138760464809, 1.2966275864424683, -0.4729688912212425, 2.4628599625295866)</t>
+  </si>
+  <si>
+    <t>NIG(0.9868407308973548, 0.797782698808083, 4.001152984074338, 4.2282621873250275)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Raiders/Distributions.xlsx
+++ b/Base/Teams/Raiders/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>NCT(2.785147743511865, 1.2057023122632777, -0.007301044594589297, 2.3184507413268456)</t>
-  </si>
-  <si>
-    <t>JSU(-1.3658504100454936, 1.17601274990059, 2.319125548339838, 4.550893059250333)</t>
-  </si>
-  <si>
-    <t>NCT(2.519138760464809, 1.2966275864424683, -0.4729688912212425, 2.4628599625295866)</t>
-  </si>
-  <si>
-    <t>NIG(0.9868407308973548, 0.797782698808083, 4.001152984074338, 4.2282621873250275)</t>
+    <t>JSU(-0.8411721664047609, 1.1079255610071932, 0.8074989541855774, 2.689652300921013)</t>
+  </si>
+  <si>
+    <t>JSU(-1.3025415079112728, 1.1861666495079528, 2.489566841598474, 4.753800340669389)</t>
+  </si>
+  <si>
+    <t>NCT(2.6273528832259583, 1.328450087333281, -0.5675657333207895, 2.4780892838916455)</t>
+  </si>
+  <si>
+    <t>NIG(1.0006319157955805, 0.8076371833616326, 4.081731228388474, 4.208562412139723)</t>
   </si>
 </sst>
 </file>
